--- a/Planilhas/Matheus - Mai.xlsx
+++ b/Planilhas/Matheus - Mai.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Task</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>Better</t>
+  </si>
+  <si>
+    <t>Parser Legends</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
   <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -468,30 +471,32 @@
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6">
         <v>4</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2</v>
       </c>
       <c r="E2" s="3">
         <f>(C2 *D2)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" s="3">
         <v>10</v>
       </c>
       <c r="D3" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" ref="E3:E10" si="0">PRODUCT(C3,D3)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -588,7 +593,7 @@
     <row r="12" spans="2:5">
       <c r="E12" s="5">
         <f>SUM(E2:E10)</f>
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Planilhas/Matheus - Mai.xlsx
+++ b/Planilhas/Matheus - Mai.xlsx
@@ -442,7 +442,7 @@
   <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -477,11 +477,11 @@
         <v>10</v>
       </c>
       <c r="D2" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3">
         <f>(C2 *D2)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -593,7 +593,7 @@
     <row r="12" spans="2:5">
       <c r="E12" s="5">
         <f>SUM(E2:E10)</f>
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Planilhas/Matheus - Mai.xlsx
+++ b/Planilhas/Matheus - Mai.xlsx
@@ -442,7 +442,7 @@
   <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -477,11 +477,11 @@
         <v>10</v>
       </c>
       <c r="D2" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3">
         <f>(C2 *D2)</f>
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -593,7 +593,7 @@
     <row r="12" spans="2:5">
       <c r="E12" s="5">
         <f>SUM(E2:E10)</f>
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Planilhas/Matheus - Mai.xlsx
+++ b/Planilhas/Matheus - Mai.xlsx
@@ -442,7 +442,7 @@
   <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -492,11 +492,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" ref="E3:E10" si="0">PRODUCT(C3,D3)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -593,7 +593,7 @@
     <row r="12" spans="2:5">
       <c r="E12" s="5">
         <f>SUM(E2:E10)</f>
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
